--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\projeto - rodrigo\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A479A5-099B-4520-8190-395997FC5747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02ACCCD-3FE4-4887-929F-853971DCAE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>H/H</t>
   </si>
   <si>
-    <t>São Luiz</t>
-  </si>
-  <si>
     <t>IMG_PHR1B_PMS_202406111339239_ORT_7091652101</t>
   </si>
   <si>
@@ -58,13 +55,16 @@
     <t>pontos por imagem</t>
   </si>
   <si>
-    <t>Área teste</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
     <t>numero de pontos</t>
+  </si>
+  <si>
+    <t>Area teste</t>
+  </si>
+  <si>
+    <t>Sao Luiz</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -482,10 +482,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,13 +878,16 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B23" s="1">
+        <v>308</v>
+      </c>
       <c r="C23" s="2">
         <v>45581</v>
       </c>
@@ -892,13 +895,16 @@
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B24" s="1">
+        <v>359</v>
+      </c>
       <c r="C24" s="2">
         <v>45582</v>
       </c>
@@ -906,13 +912,16 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B25" s="1">
+        <v>350</v>
+      </c>
       <c r="C25" s="2">
         <v>45582</v>
       </c>
@@ -920,13 +929,16 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B26" s="1">
+        <v>308</v>
+      </c>
       <c r="C26" s="2">
         <v>45582</v>
       </c>
@@ -934,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,13 +960,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B28" s="1">
+        <v>405</v>
+      </c>
       <c r="C28" s="2">
         <v>45583</v>
       </c>
@@ -962,13 +977,16 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B29" s="1">
+        <v>350</v>
+      </c>
       <c r="C29" s="2">
         <v>45583</v>
       </c>
@@ -976,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -1,37 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\projeto - rodrigo\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02ACCCD-3FE4-4887-929F-853971DCAE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72874139-BDE6-4B63-BD35-B48366079C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão_FITec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="16">
   <si>
-    <t>imagem</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>numero de pontos</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>Andre</t>
+    <t>H/H</t>
+  </si>
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>pontos por imagem</t>
   </si>
   <si>
     <t>Marcos</t>
+  </si>
+  <si>
+    <t>IMG_PHR1B_PMS_202406111339239_ORT_7091652101</t>
+  </si>
+  <si>
+    <t>Area teste</t>
   </si>
   <si>
     <t>Fernando</t>
@@ -40,38 +74,23 @@
     <t>Jader</t>
   </si>
   <si>
-    <t>cidade</t>
+    <t>Andre</t>
   </si>
   <si>
-    <t>H/H</t>
+    <t>IMG_PHR1B_PMS_202407161319293_ORT_7091880101_R3C1</t>
   </si>
   <si>
-    <t>IMG_PHR1B_PMS_202406111339239_ORT_7091652101</t>
+    <t>Sao Luiz</t>
   </si>
   <si>
     <t>IMG_PHR1B_PMS_202407141334120_ORT_7091881101</t>
-  </si>
-  <si>
-    <t>pontos por imagem</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>numero de pontos</t>
-  </si>
-  <si>
-    <t>Area teste</t>
-  </si>
-  <si>
-    <t>Sao Luiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,49 +485,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="15" style="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15" style="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15" style="1"/>
+    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
     <col min="8" max="1010" width="15" style="1"/>
-    <col min="1011" max="16384" width="8.88671875" style="1"/>
+    <col min="1011" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>45573</v>
@@ -516,13 +537,16 @@
       <c r="D2" s="1">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>174</v>
@@ -533,13 +557,16 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>232</v>
@@ -554,12 +581,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>400</v>
@@ -574,12 +601,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>130</v>
@@ -594,12 +621,12 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>213</v>
@@ -614,12 +641,12 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>185</v>
@@ -630,13 +657,16 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>400</v>
@@ -651,9 +681,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>210</v>
@@ -665,15 +695,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>51</v>
@@ -688,9 +718,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>215</v>
@@ -701,13 +731,16 @@
       <c r="D12" s="1">
         <v>6</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>300</v>
@@ -722,9 +755,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>245</v>
@@ -736,15 +769,15 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>217</v>
@@ -759,9 +792,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>213</v>
@@ -772,13 +805,16 @@
       <c r="D16" s="1">
         <v>6</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>400</v>
@@ -793,9 +829,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>270</v>
@@ -807,15 +843,15 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>358</v>
@@ -830,9 +866,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>354</v>
@@ -843,13 +879,16 @@
       <c r="D20" s="1">
         <v>6</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>507</v>
@@ -864,9 +903,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>319</v>
@@ -877,13 +916,16 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>308</v>
@@ -898,9 +940,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>359</v>
@@ -911,13 +953,16 @@
       <c r="D24" s="1">
         <v>6</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>350</v>
@@ -932,9 +977,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>308</v>
@@ -945,13 +990,16 @@
       <c r="D26" s="1">
         <v>4</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>45582</v>
@@ -963,9 +1011,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <v>405</v>
@@ -976,13 +1024,16 @@
       <c r="D28" s="1">
         <v>6</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>350</v>
@@ -997,9 +1048,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>327</v>
       </c>
       <c r="C30" s="2">
         <v>45583</v>
@@ -1007,13 +1061,16 @@
       <c r="D30" s="1">
         <v>4</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>45583</v>
@@ -1025,9 +1082,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2">
         <v>45586</v>
@@ -1039,9 +1096,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <v>45586</v>
@@ -1053,9 +1110,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
         <v>45586</v>
@@ -1067,9 +1124,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>45586</v>
@@ -1081,9 +1138,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
         <v>45587</v>
@@ -1095,9 +1152,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>45587</v>
@@ -1109,9 +1166,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
         <v>45587</v>
@@ -1123,9 +1180,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2">
         <v>45587</v>
@@ -1137,9 +1194,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
         <v>45588</v>
@@ -1151,9 +1208,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
         <v>45588</v>
@@ -1165,9 +1222,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
         <v>45588</v>
@@ -1179,9 +1236,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
         <v>45588</v>
@@ -1193,9 +1250,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2">
         <v>45589</v>
@@ -1207,9 +1264,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2">
         <v>45589</v>
@@ -1221,9 +1278,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2">
         <v>45589</v>
@@ -1235,9 +1292,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2">
         <v>45589</v>
@@ -1249,9 +1306,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2">
         <v>45590</v>
@@ -1263,9 +1320,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2">
         <v>45590</v>
@@ -1277,9 +1334,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2">
         <v>45590</v>
@@ -1291,9 +1348,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2">
         <v>45590</v>
@@ -1305,9 +1362,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
         <v>45593</v>
@@ -1319,9 +1376,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2">
         <v>45593</v>
@@ -1333,9 +1390,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2">
         <v>45593</v>
@@ -1347,9 +1404,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <v>45593</v>
@@ -1361,9 +1418,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2">
         <v>45594</v>
@@ -1375,9 +1432,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2">
         <v>45594</v>
@@ -1389,9 +1446,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2">
         <v>45594</v>
@@ -1403,9 +1460,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2">
         <v>45594</v>
@@ -1417,9 +1474,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2">
         <v>45595</v>
@@ -1431,9 +1488,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2">
         <v>45595</v>
@@ -1445,9 +1502,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
         <v>45595</v>
@@ -1459,9 +1516,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
         <v>45595</v>
@@ -1473,9 +1530,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
         <v>45596</v>
@@ -1487,9 +1544,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2">
         <v>45596</v>
@@ -1501,9 +1558,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2">
         <v>45596</v>
@@ -1515,9 +1572,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2">
         <v>45596</v>
@@ -1535,4 +1592,237 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C8543FC5BA10A94D9870692CC2913238" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7cae6736892ff22c59398a8cd4a14720">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6476193d-6ee8-4cfa-8242-6e79a2ae9938" xmlns:ns3="ba57ee23-97c6-45f2-8cdc-f635c66bca55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d595af8ad07f60ffc651bc1c5938ace9" ns2:_="" ns3:_="">
+    <xsd:import namespace="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <xsd:import namespace="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6476193d-6ee8-4cfa-8242-6e79a2ae9938" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a0f8f725-c1a3-40d2-a969-50e91a024610" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ba57ee23-97c6-45f2-8cdc-f635c66bca55" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{35cd41ea-e15f-47cf-91c7-7355e7f17674}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ba57ee23-97c6-45f2-8cdc-f635c66bca55">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72874139-BDE6-4B63-BD35-B48366079C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA23D1D-B975-4B74-9744-340CF17A3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -83,7 +83,10 @@
     <t>Sao Luiz</t>
   </si>
   <si>
-    <t>IMG_PHR1B_PMS_202407141334120_ORT_7091881101</t>
+    <t>IMG_PHR1B_PMS_202407141334120_ORT_7091881101_R1C2</t>
+  </si>
+  <si>
+    <t>IMG_PHR1B_PMS_202407141334120_ORT_7091881101_R1C3</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
@@ -494,7 +497,7 @@
     <col min="1" max="1" width="15" style="1"/>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1"/>
     <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
     <col min="8" max="1010" width="15" style="1"/>
@@ -714,6 +717,9 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,6 +794,9 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
@@ -862,6 +871,9 @@
       <c r="D19" s="1">
         <v>4</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
@@ -936,6 +948,9 @@
       <c r="D23" s="1">
         <v>4</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,11 +1016,17 @@
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B27" s="1">
+        <v>395</v>
+      </c>
       <c r="C27" s="2">
         <v>45582</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1072,11 +1093,17 @@
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B31" s="1">
+        <v>265</v>
+      </c>
       <c r="C31" s="2">
         <v>45583</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
@@ -1086,11 +1113,17 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B32" s="1">
+        <v>422</v>
+      </c>
       <c r="C32" s="2">
         <v>45586</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -1120,6 +1153,9 @@
       <c r="D34" s="1">
         <v>4</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1128,11 +1164,17 @@
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B35" s="1">
+        <v>334</v>
+      </c>
       <c r="C35" s="2">
         <v>45586</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -1595,14 +1637,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,16 +1847,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,5 +1866,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA23D1D-B975-4B74-9744-340CF17A3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8174AFF1-4A48-4B57-9DF7-60716475FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1392" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão_FITec" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,23 +477,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="77.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="1010" width="15" style="1"/>
-    <col min="1011" max="16384" width="8.85546875" style="1"/>
+    <col min="1011" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -567,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -587,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -627,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -647,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -667,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -684,7 +673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -724,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -761,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -781,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -801,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -858,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,7 +924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -955,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,7 +964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,7 +981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1129,10 +1118,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B33" s="1">
+        <v>420</v>
+      </c>
       <c r="C33" s="2">
         <v>45586</v>
       </c>
@@ -1143,10 +1135,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B34" s="1">
+        <v>300</v>
+      </c>
       <c r="C34" s="2">
         <v>45586</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1637,12 +1632,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1847,24 +1844,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8174AFF1-4A48-4B57-9DF7-60716475FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CE22F-E715-4A45-B269-92E132733FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1179,9 @@
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B36" s="1">
+        <v>319</v>
+      </c>
       <c r="C36" s="2">
         <v>45587</v>
       </c>
@@ -1193,6 +1196,9 @@
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B37" s="1">
+        <v>308</v>
+      </c>
       <c r="C37" s="2">
         <v>45587</v>
       </c>
@@ -1207,6 +1213,9 @@
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B38" s="1">
+        <v>359</v>
+      </c>
       <c r="C38" s="2">
         <v>45587</v>
       </c>
@@ -1221,6 +1230,9 @@
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B39" s="1">
+        <v>350</v>
+      </c>
       <c r="C39" s="2">
         <v>45587</v>
       </c>
@@ -1235,6 +1247,9 @@
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B40" s="1">
+        <v>308</v>
+      </c>
       <c r="C40" s="2">
         <v>45588</v>
       </c>
@@ -1249,6 +1264,9 @@
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B41" s="1">
+        <v>395</v>
+      </c>
       <c r="C41" s="2">
         <v>45588</v>
       </c>
@@ -1263,6 +1281,9 @@
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B42" s="1">
+        <v>405</v>
+      </c>
       <c r="C42" s="2">
         <v>45588</v>
       </c>
@@ -1277,6 +1298,9 @@
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B43" s="1">
+        <v>350</v>
+      </c>
       <c r="C43" s="2">
         <v>45588</v>
       </c>
@@ -1291,6 +1315,9 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B44" s="1">
+        <v>327</v>
+      </c>
       <c r="C44" s="2">
         <v>45589</v>
       </c>
@@ -1305,6 +1332,9 @@
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B45" s="1">
+        <v>265</v>
+      </c>
       <c r="C45" s="2">
         <v>45589</v>
       </c>
@@ -1319,6 +1349,9 @@
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B46" s="1">
+        <v>422</v>
+      </c>
       <c r="C46" s="2">
         <v>45589</v>
       </c>
@@ -1333,6 +1366,9 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B47" s="1">
+        <v>420</v>
+      </c>
       <c r="C47" s="2">
         <v>45589</v>
       </c>
@@ -1347,6 +1383,9 @@
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B48" s="1">
+        <v>300</v>
+      </c>
       <c r="C48" s="2">
         <v>45590</v>
       </c>
@@ -1361,6 +1400,9 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B49" s="1">
+        <v>319</v>
+      </c>
       <c r="C49" s="2">
         <v>45590</v>
       </c>
@@ -1375,6 +1417,9 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B50" s="1">
+        <v>308</v>
+      </c>
       <c r="C50" s="2">
         <v>45590</v>
       </c>
@@ -1389,6 +1434,9 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B51" s="1">
+        <v>359</v>
+      </c>
       <c r="C51" s="2">
         <v>45590</v>
       </c>
@@ -1403,6 +1451,9 @@
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B52" s="1">
+        <v>350</v>
+      </c>
       <c r="C52" s="2">
         <v>45593</v>
       </c>
@@ -1417,6 +1468,9 @@
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B53" s="1">
+        <v>308</v>
+      </c>
       <c r="C53" s="2">
         <v>45593</v>
       </c>
@@ -1431,6 +1485,9 @@
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B54" s="1">
+        <v>395</v>
+      </c>
       <c r="C54" s="2">
         <v>45593</v>
       </c>
@@ -1445,6 +1502,9 @@
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B55" s="1">
+        <v>405</v>
+      </c>
       <c r="C55" s="2">
         <v>45593</v>
       </c>
@@ -1459,6 +1519,9 @@
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B56" s="1">
+        <v>350</v>
+      </c>
       <c r="C56" s="2">
         <v>45594</v>
       </c>
@@ -1473,6 +1536,9 @@
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B57" s="1">
+        <v>327</v>
+      </c>
       <c r="C57" s="2">
         <v>45594</v>
       </c>
@@ -1487,6 +1553,9 @@
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B58" s="1">
+        <v>265</v>
+      </c>
       <c r="C58" s="2">
         <v>45594</v>
       </c>
@@ -1501,6 +1570,9 @@
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B59" s="1">
+        <v>422</v>
+      </c>
       <c r="C59" s="2">
         <v>45594</v>
       </c>
@@ -1515,6 +1587,9 @@
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B60" s="1">
+        <v>420</v>
+      </c>
       <c r="C60" s="2">
         <v>45595</v>
       </c>
@@ -1529,6 +1604,9 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B61" s="1">
+        <v>300</v>
+      </c>
       <c r="C61" s="2">
         <v>45595</v>
       </c>
@@ -1543,6 +1621,9 @@
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B62" s="1">
+        <v>319</v>
+      </c>
       <c r="C62" s="2">
         <v>45595</v>
       </c>
@@ -1557,6 +1638,9 @@
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B63" s="1">
+        <v>308</v>
+      </c>
       <c r="C63" s="2">
         <v>45595</v>
       </c>
@@ -1571,6 +1655,9 @@
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B64" s="1">
+        <v>359</v>
+      </c>
       <c r="C64" s="2">
         <v>45596</v>
       </c>
@@ -1585,6 +1672,9 @@
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B65" s="1">
+        <v>350</v>
+      </c>
       <c r="C65" s="2">
         <v>45596</v>
       </c>
@@ -1599,6 +1689,9 @@
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B66" s="1">
+        <v>308</v>
+      </c>
       <c r="C66" s="2">
         <v>45596</v>
       </c>
@@ -1612,6 +1705,9 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B67" s="1">
+        <v>395</v>
       </c>
       <c r="C67" s="2">
         <v>45596</v>
@@ -1632,14 +1728,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1844,21 +1938,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
-    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1883,9 +1976,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CE22F-E715-4A45-B269-92E132733FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB5CFA-0856-4CBF-8FEB-C108EB397BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1179,9 +1179,6 @@
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="1">
-        <v>319</v>
-      </c>
       <c r="C36" s="2">
         <v>45587</v>
       </c>
@@ -1196,9 +1193,6 @@
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="1">
-        <v>308</v>
-      </c>
       <c r="C37" s="2">
         <v>45587</v>
       </c>
@@ -1213,9 +1207,6 @@
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1">
-        <v>359</v>
-      </c>
       <c r="C38" s="2">
         <v>45587</v>
       </c>
@@ -1230,9 +1221,6 @@
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1">
-        <v>350</v>
-      </c>
       <c r="C39" s="2">
         <v>45587</v>
       </c>
@@ -1247,9 +1235,6 @@
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1">
-        <v>308</v>
-      </c>
       <c r="C40" s="2">
         <v>45588</v>
       </c>
@@ -1264,9 +1249,6 @@
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1">
-        <v>395</v>
-      </c>
       <c r="C41" s="2">
         <v>45588</v>
       </c>
@@ -1281,9 +1263,6 @@
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1">
-        <v>405</v>
-      </c>
       <c r="C42" s="2">
         <v>45588</v>
       </c>
@@ -1298,9 +1277,6 @@
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
-        <v>350</v>
-      </c>
       <c r="C43" s="2">
         <v>45588</v>
       </c>
@@ -1315,9 +1291,6 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1">
-        <v>327</v>
-      </c>
       <c r="C44" s="2">
         <v>45589</v>
       </c>
@@ -1332,9 +1305,6 @@
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="1">
-        <v>265</v>
-      </c>
       <c r="C45" s="2">
         <v>45589</v>
       </c>
@@ -1349,9 +1319,6 @@
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="1">
-        <v>422</v>
-      </c>
       <c r="C46" s="2">
         <v>45589</v>
       </c>
@@ -1366,9 +1333,6 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1">
-        <v>420</v>
-      </c>
       <c r="C47" s="2">
         <v>45589</v>
       </c>
@@ -1383,9 +1347,6 @@
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1">
-        <v>300</v>
-      </c>
       <c r="C48" s="2">
         <v>45590</v>
       </c>
@@ -1400,9 +1361,6 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="1">
-        <v>319</v>
-      </c>
       <c r="C49" s="2">
         <v>45590</v>
       </c>
@@ -1417,9 +1375,6 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="1">
-        <v>308</v>
-      </c>
       <c r="C50" s="2">
         <v>45590</v>
       </c>
@@ -1434,9 +1389,6 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1">
-        <v>359</v>
-      </c>
       <c r="C51" s="2">
         <v>45590</v>
       </c>
@@ -1451,9 +1403,6 @@
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="1">
-        <v>350</v>
-      </c>
       <c r="C52" s="2">
         <v>45593</v>
       </c>
@@ -1468,9 +1417,6 @@
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="1">
-        <v>308</v>
-      </c>
       <c r="C53" s="2">
         <v>45593</v>
       </c>
@@ -1485,9 +1431,6 @@
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="1">
-        <v>395</v>
-      </c>
       <c r="C54" s="2">
         <v>45593</v>
       </c>
@@ -1502,9 +1445,6 @@
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="1">
-        <v>405</v>
-      </c>
       <c r="C55" s="2">
         <v>45593</v>
       </c>
@@ -1519,9 +1459,6 @@
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="1">
-        <v>350</v>
-      </c>
       <c r="C56" s="2">
         <v>45594</v>
       </c>
@@ -1536,9 +1473,6 @@
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="1">
-        <v>327</v>
-      </c>
       <c r="C57" s="2">
         <v>45594</v>
       </c>
@@ -1553,9 +1487,6 @@
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1">
-        <v>265</v>
-      </c>
       <c r="C58" s="2">
         <v>45594</v>
       </c>
@@ -1570,9 +1501,6 @@
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="1">
-        <v>422</v>
-      </c>
       <c r="C59" s="2">
         <v>45594</v>
       </c>
@@ -1587,9 +1515,6 @@
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="1">
-        <v>420</v>
-      </c>
       <c r="C60" s="2">
         <v>45595</v>
       </c>
@@ -1604,9 +1529,6 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="1">
-        <v>300</v>
-      </c>
       <c r="C61" s="2">
         <v>45595</v>
       </c>
@@ -1621,9 +1543,6 @@
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="1">
-        <v>319</v>
-      </c>
       <c r="C62" s="2">
         <v>45595</v>
       </c>
@@ -1638,9 +1557,6 @@
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="1">
-        <v>308</v>
-      </c>
       <c r="C63" s="2">
         <v>45595</v>
       </c>
@@ -1655,9 +1571,6 @@
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="1">
-        <v>359</v>
-      </c>
       <c r="C64" s="2">
         <v>45596</v>
       </c>
@@ -1672,9 +1585,6 @@
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1">
-        <v>350</v>
-      </c>
       <c r="C65" s="2">
         <v>45596</v>
       </c>
@@ -1689,9 +1599,6 @@
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1">
-        <v>308</v>
-      </c>
       <c r="C66" s="2">
         <v>45596</v>
       </c>
@@ -1705,9 +1612,6 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B67" s="1">
-        <v>395</v>
       </c>
       <c r="C67" s="2">
         <v>45596</v>
@@ -1728,12 +1632,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1938,20 +1844,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1976,12 +1883,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
-    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB5CFA-0856-4CBF-8FEB-C108EB397BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29458005-126E-4BDD-8802-2699D525E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2">
         <v>45586</v>
@@ -1632,14 +1632,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1844,21 +1842,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
-    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1883,9 +1880,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29458005-126E-4BDD-8802-2699D525E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{448A3196-6FEC-47F6-8167-36763CAE0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE10B89F-BFBA-43B8-AFBD-EB2B67E4CEFD}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão_FITec" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="18">
   <si>
     <t>Nome</t>
   </si>
@@ -46,6 +57,9 @@
   </si>
   <si>
     <t>pontos por imagem</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
   </si>
   <si>
     <t>Marcos</t>
@@ -82,9 +96,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -109,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -117,11 +143,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -163,23 +199,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE4D9FBD-BE82-4A2D-89A9-87A8EC2CBAC9}" name="Tabela1" displayName="Tabela1" ref="A1:G1048554" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G1048554" xr:uid="{DE4D9FBD-BE82-4A2D-89A9-87A8EC2CBAC9}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3454FDDA-C530-453B-807C-06AA9EE1C1E4}" name="Nome" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{48A6105F-9DD8-4D0E-BF86-DE30655646FF}" name="numero de pontos" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E95C275D-98F8-492D-BCCD-CABE996024FC}" name="data" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9C6E45AE-8FF5-491D-92F1-AEE28696812F}" name="H/H" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{5F07796B-CBBE-4E80-96DF-6EE53EF0C650}" name="imagem" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{86B576F2-FBD5-45F8-B03B-BE1836CCFEAC}" name="cidade" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A9D1E318-B8B5-4F68-9A97-F18FCD0CFE25}" name="pontos por imagem" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE4D9FBD-BE82-4A2D-89A9-87A8EC2CBAC9}" name="Tabela1" displayName="Tabela1" ref="A1:H1048554" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H1048554" xr:uid="{DE4D9FBD-BE82-4A2D-89A9-87A8EC2CBAC9}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3454FDDA-C530-453B-807C-06AA9EE1C1E4}" name="Nome" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{48A6105F-9DD8-4D0E-BF86-DE30655646FF}" name="numero de pontos" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E95C275D-98F8-492D-BCCD-CABE996024FC}" name="data" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9C6E45AE-8FF5-491D-92F1-AEE28696812F}" name="H/H" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5F07796B-CBBE-4E80-96DF-6EE53EF0C650}" name="imagem" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{86B576F2-FBD5-45F8-B03B-BE1836CCFEAC}" name="cidade" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A9D1E318-B8B5-4F68-9A97-F18FCD0CFE25}" name="pontos por imagem" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8FA02117-4B25-4DB5-BD09-1463363028E6}" name="Coluna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,25 +512,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="15" style="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="77.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
     <col min="8" max="1010" width="15" style="1"/>
-    <col min="1011" max="16384" width="8.88671875" style="1"/>
+    <col min="1011" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +552,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>58</v>
@@ -530,15 +570,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>174</v>
@@ -550,15 +590,15 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>232</v>
@@ -570,15 +610,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>400</v>
@@ -590,15 +630,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>130</v>
@@ -610,15 +650,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>213</v>
@@ -630,15 +670,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>185</v>
@@ -650,15 +690,18 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>400</v>
@@ -670,12 +713,12 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>210</v>
@@ -687,15 +730,18 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>51</v>
@@ -707,15 +753,18 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>215</v>
@@ -727,15 +776,18 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>300</v>
@@ -747,12 +799,12 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>245</v>
@@ -764,15 +816,18 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>217</v>
@@ -784,15 +839,18 @@
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>213</v>
@@ -804,15 +862,18 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>400</v>
@@ -824,12 +885,12 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>270</v>
@@ -841,15 +902,18 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>358</v>
@@ -861,15 +925,18 @@
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>354</v>
@@ -881,15 +948,18 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>507</v>
@@ -901,12 +971,12 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>319</v>
@@ -918,15 +988,18 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>308</v>
@@ -938,15 +1011,18 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>359</v>
@@ -958,15 +1034,18 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>350</v>
@@ -978,12 +1057,12 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>308</v>
@@ -995,15 +1074,18 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1">
         <v>395</v>
@@ -1015,15 +1097,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
         <v>405</v>
@@ -1035,15 +1120,18 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
         <v>350</v>
@@ -1055,12 +1143,12 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
         <v>327</v>
@@ -1072,15 +1160,18 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>265</v>
@@ -1092,15 +1183,18 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
         <v>422</v>
@@ -1112,17 +1206,20 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75">
       <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
         <v>420</v>
       </c>
       <c r="C33" s="2">
@@ -1132,15 +1229,15 @@
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
       <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1">
-        <v>320</v>
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>331</v>
       </c>
       <c r="C34" s="2">
         <v>45586</v>
@@ -1149,15 +1246,18 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>334</v>
@@ -1169,15 +1269,21 @@
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>409</v>
       </c>
       <c r="C36" s="2">
         <v>45587</v>
@@ -1185,13 +1291,16 @@
       <c r="D36" s="1">
         <v>6</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
         <v>45587</v>
@@ -1200,12 +1309,15 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>341</v>
       </c>
       <c r="C38" s="2">
         <v>45587</v>
@@ -1213,13 +1325,22 @@
       <c r="D38" s="1">
         <v>4</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>331</v>
       </c>
       <c r="C39" s="2">
         <v>45587</v>
@@ -1227,13 +1348,16 @@
       <c r="D39" s="1">
         <v>4</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
         <v>45588</v>
@@ -1242,12 +1366,12 @@
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
         <v>45588</v>
@@ -1256,12 +1380,12 @@
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <v>45588</v>
@@ -1270,12 +1394,12 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
         <v>45588</v>
@@ -1284,12 +1408,12 @@
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
         <v>45589</v>
@@ -1298,12 +1422,12 @@
         <v>6</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
         <v>45589</v>
@@ -1312,12 +1436,12 @@
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
         <v>45589</v>
@@ -1326,12 +1450,12 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
         <v>45589</v>
@@ -1340,12 +1464,12 @@
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
         <v>45590</v>
@@ -1354,12 +1478,12 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>45590</v>
@@ -1368,12 +1492,12 @@
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2">
         <v>45590</v>
@@ -1382,12 +1506,12 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2">
         <v>45590</v>
@@ -1396,12 +1520,12 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2">
         <v>45593</v>
@@ -1410,12 +1534,12 @@
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2">
         <v>45593</v>
@@ -1424,12 +1548,12 @@
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2">
         <v>45593</v>
@@ -1438,12 +1562,12 @@
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
         <v>45593</v>
@@ -1452,12 +1576,12 @@
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2">
         <v>45594</v>
@@ -1466,12 +1590,12 @@
         <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
         <v>45594</v>
@@ -1480,12 +1604,12 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>45594</v>
@@ -1494,12 +1618,12 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
         <v>45594</v>
@@ -1508,12 +1632,12 @@
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2">
         <v>45595</v>
@@ -1522,12 +1646,12 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" s="2">
         <v>45595</v>
@@ -1536,12 +1660,12 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2">
         <v>45595</v>
@@ -1550,12 +1674,12 @@
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
         <v>45595</v>
@@ -1564,12 +1688,12 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2">
         <v>45596</v>
@@ -1578,12 +1702,12 @@
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
         <v>45596</v>
@@ -1592,12 +1716,12 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2">
         <v>45596</v>
@@ -1606,12 +1730,12 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
         <v>45596</v>
@@ -1620,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1632,6 +1756,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1640,7 +1775,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C8543FC5BA10A94D9870692CC2913238" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7cae6736892ff22c59398a8cd4a14720">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6476193d-6ee8-4cfa-8242-6e79a2ae9938" xmlns:ns3="ba57ee23-97c6-45f2-8cdc-f635c66bca55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d595af8ad07f60ffc651bc1c5938ace9" ns2:_="" ns3:_="">
     <xsd:import namespace="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
@@ -1841,51 +1976,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
-    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
-    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}"/>
 </file>
--- a/data/planilha de controle.xlsx
+++ b/data/planilha de controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Área de Trabalho\Projetos WEB\Dashboard_FITec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{448A3196-6FEC-47F6-8167-36763CAE0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE10B89F-BFBA-43B8-AFBD-EB2B67E4CEFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAAB82E-CE35-4B28-A5ED-D1310DD0594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2448" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão_FITec" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -96,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,23 +503,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="77.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="1010" width="15" style="1"/>
-    <col min="1011" max="16384" width="8.85546875" style="1"/>
+    <col min="1011" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -576,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -596,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -636,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -699,7 +688,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -716,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -739,7 +728,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,7 +751,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -785,7 +774,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -802,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -825,7 +814,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -848,7 +837,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,7 +860,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -888,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -911,7 +900,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,7 +923,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,7 +946,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,7 +986,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1009,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1032,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1072,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1106,7 +1095,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1118,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1158,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1181,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1204,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1244,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1267,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1298,10 +1287,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B37" s="1">
+        <v>420</v>
+      </c>
       <c r="C37" s="2">
         <v>45587</v>
       </c>
@@ -1312,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1327,7 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1397,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1453,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1565,7 +1557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1635,7 +1627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1663,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -1756,26 +1748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C8543FC5BA10A94D9870692CC2913238" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7cae6736892ff22c59398a8cd4a14720">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6476193d-6ee8-4cfa-8242-6e79a2ae9938" xmlns:ns3="ba57ee23-97c6-45f2-8cdc-f635c66bca55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d595af8ad07f60ffc651bc1c5938ace9" ns2:_="" ns3:_="">
     <xsd:import namespace="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
@@ -1976,14 +1948,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba57ee23-97c6-45f2-8cdc-f635c66bca55" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6476193d-6ee8-4cfa-8242-6e79a2ae9938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AB72C1-F59C-49EB-827A-7F3E5C4F5B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6A7B75-E946-43D0-BDCD-50DD56517022}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2130CF2C-0998-41EF-9549-7D4958D1276C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba57ee23-97c6-45f2-8cdc-f635c66bca55"/>
+    <ds:schemaRef ds:uri="6476193d-6ee8-4cfa-8242-6e79a2ae9938"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>